--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_4.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_4.xlsx
@@ -466,10 +466,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -478,13 +478,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>104.2001953125</v>
+        <v>179.26025390625</v>
       </c>
       <c r="H2">
-        <v>98.89990234375</v>
+        <v>149.5</v>
       </c>
       <c r="I2">
-        <v>5.30029296875</v>
+        <v>29.76025390625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -507,16 +507,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>98.89990234375</v>
+        <v>149.5</v>
       </c>
       <c r="H3">
-        <v>104.2001953125</v>
+        <v>179.26025390625</v>
       </c>
       <c r="I3">
-        <v>-5.30029296875</v>
+        <v>-29.76025390625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -575,10 +575,10 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -587,13 +587,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>120.2998046875</v>
+        <v>197.5498046875</v>
       </c>
       <c r="H2">
-        <v>101.7998046875</v>
+        <v>175.8095703125</v>
       </c>
       <c r="I2">
-        <v>18.5</v>
+        <v>21.740234375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -616,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>101.7998046875</v>
+        <v>175.8095703125</v>
       </c>
       <c r="H3">
-        <v>120.2998046875</v>
+        <v>197.5498046875</v>
       </c>
       <c r="I3">
-        <v>-18.5</v>
+        <v>-21.740234375</v>
       </c>
       <c r="J3">
         <v>2</v>
